--- a/MarsFramework/ExcelData/TestDataManageListings.xlsx
+++ b/MarsFramework/ExcelData/TestDataManageListings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\source\repos\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Internship\Competition_Task\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB9FD13-2E9F-4196-BD4A-A5265C1CCBD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E8600-1A3A-4653-91F2-85EF9FD22025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31515" yWindow="2835" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -48,18 +48,6 @@
     <t>ConfirmPswd</t>
   </si>
   <si>
-    <t>Venugan</t>
-  </si>
-  <si>
-    <t>Vidhya</t>
-  </si>
-  <si>
-    <t>vidhyav9@gmail.com</t>
-  </si>
-  <si>
-    <t>Ithika2015</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -69,7 +57,19 @@
     <t>Deleteaction</t>
   </si>
   <si>
-    <t>Selenium</t>
+    <t>reemarobin1993@gmail.com</t>
+  </si>
+  <si>
+    <t>Marsproject143@</t>
+  </si>
+  <si>
+    <t>Reema</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Java</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,24 +506,26 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{DB469CD8-2E23-47B2-9F33-3B573BF25876}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{41DC700A-83EE-4EA0-9FF1-A6CB9E2901F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,17 +562,17 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -582,7 +584,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,10 +602,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -626,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
